--- a/biology/Zoologie/Caputoraptor/Caputoraptor.xlsx
+++ b/biology/Zoologie/Caputoraptor/Caputoraptor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caputoraptor elegans
 Caputoraptor est un genre fossile d'insectes dictyoptères de l'ordre des Alienoptera (ou Blattodea). Les deux espèces du genre ont été trouvées dans l'ambre de Birmanie datant du Crétacé. L'espèce type est Caputoraptor elegans.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Caputoraptor et l'espèce Caputoraptor elegans sont décrits en 2018 par les paléontologues Ming Bai (d), Rolf Georg Beutel (d) et Benjamin Wipfler (d) dans une publication coécrite avec Weiwei Zhang, Shuo Wang, Marie K. Hörnig (d), Carsten Gröhn, Evgeny Yan et Xingke Yang[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Caputoraptor et l'espèce Caputoraptor elegans sont décrits en 2018 par les paléontologues Ming Bai (d), Rolf Georg Beutel (d) et Benjamin Wipfler (d) dans une publication coécrite avec Weiwei Zhang, Shuo Wang, Marie K. Hörnig (d), Carsten Gröhn, Evgeny Yan et Xingke Yang,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>† Caputoraptor elegans Bai et al., 2018 espèce-type
 † Caputoraptor vidit Smidova et al., 2018</t>
